--- a/www.eia.gov/electricity/monthly/xls/table_a_6_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_6_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.6.B. Relative Standard Error for Sales of Electricity to Ultimate Customers</t>
   </si>
   <si>
-    <t>by End-Use Sector, Census Division, and State, Year-to-Date through October 2016</t>
+    <t>by End-Use Sector, Census Division, and State, Year-to-Date through November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C4" s="6">
         <v>0.38</v>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="8">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
@@ -1394,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="C14" s="8">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D14" s="8">
         <v>0.44</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="6">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -1694,10 +1694,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="C29" s="6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="8">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -1754,10 +1754,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C32" s="8">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D32" s="8">
         <v>3</v>
@@ -1794,7 +1794,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C34" s="8">
         <v>0.32</v>
@@ -1814,10 +1814,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="8">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="C35" s="8">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="8">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C37" s="8">
         <v>0.25</v>
@@ -1874,10 +1874,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="8">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C38" s="8">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D38" s="8">
         <v>0.28000000000000003</v>
@@ -1934,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="8">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -1974,7 +1974,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="8">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -1994,10 +1994,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C44" s="6">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="8">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C48" s="8">
         <v>0.28000000000000003</v>
@@ -2154,7 +2154,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="8">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="C52" s="8">
         <v>3</v>
@@ -2194,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="8">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -2274,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="6">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -2314,13 +2314,13 @@
         <v>64</v>
       </c>
       <c r="B60" s="8">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="C60" s="8">
         <v>3</v>
       </c>
       <c r="D60" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" s="8">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="8">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="C61" s="8">
         <v>3</v>
@@ -2414,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C65" s="6">
         <v>0.24</v>
